--- a/dashboard_loader/education_yr12_uploader/education_yr12.xlsx
+++ b/dashboard_loader/education_yr12_uploader/education_yr12.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="29">
   <si>
     <t xml:space="preserve">Year</t>
   </si>
@@ -121,7 +121,7 @@
     <t xml:space="preserve">Desc Body</t>
   </si>
   <si>
-    <t xml:space="preserve">The ABS Survey of Education and Work shows there was a 4.8 percentage point increase in the year 12 (or equivalent) or Certificate III attainment rate between 2007 and 2015. If the current trend continues or improves, the 2020 target is likely to be met.</t>
+    <t xml:space="preserve">The ABS Survey of Education and Work shows there was a 4.1 percentage point increase in the year 12 (or equivalent) or Certificate III attainment rate between 2007 and 2017. Despite a decrease of 2.8 percentage points from 2016, if the overall trend continues, the 2020 target is likely to be met.</t>
   </si>
   <si>
     <t xml:space="preserve">Notes</t>
@@ -136,19 +136,20 @@
     <t xml:space="preserve">Source</t>
   </si>
   <si>
-    <t xml:space="preserve">ABS Survey of Education and Work, various years and ABS 2006 and 2011 Census.</t>
+    <t xml:space="preserve">ABS Survey of Education and Work, various years and ABS 2006, 2011 and 2016 Census of Population and Housing..</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="########\ ###\ ##0.0;\-########\ ###\ ##0.0;\–"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="0.00000000000000_ ;\-0.00000000000000\ "/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -172,16 +173,14 @@
       <family val="0"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="24"/>
-      <color rgb="FF000000"/>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
+      <sz val="12"/>
+      <color rgb="FF00000A"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -195,84 +194,18 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <i val="true"/>
-      <sz val="10"/>
-      <color rgb="FF808080"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF006600"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF996600"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCC0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF00000A"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
   </fonts>
-  <fills count="10">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -281,74 +214,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor rgb="FFDDDDDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FF800000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF00000A"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFFFCCCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF808080"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -366,7 +242,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -390,172 +266,120 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="36" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="36" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="36" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="2" xfId="36" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="36" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="36" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="36" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="20" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="36" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="20" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="36" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="36" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="9" borderId="3" xfId="36" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="36" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="36" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="36" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Status" xfId="26" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Good" xfId="27" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Neutral" xfId="28" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Bad" xfId="29" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Warning" xfId="30" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Error" xfId="31" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent" xfId="32" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 1" xfId="33" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 2" xfId="34" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 3" xfId="35" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="36" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF00000A"/>
-      <rgbColor rgb="FF996600"/>
+      <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
@@ -567,7 +391,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -583,7 +407,7 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -610,21 +434,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:L65536"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="B6:B8 C2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="37.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="9.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="1" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="37.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="9.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="1" width="8.55"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -659,7 +483,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
         <v>2006</v>
       </c>
@@ -694,7 +518,7 @@
         <v>81.9</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="n">
         <v>2007</v>
       </c>
@@ -713,7 +537,7 @@
         <v>82.3</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="n">
         <v>2007</v>
       </c>
@@ -732,7 +556,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="n">
         <v>2007</v>
       </c>
@@ -751,7 +575,7 @@
         <v>0.729040097205346</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="n">
         <v>2008</v>
       </c>
@@ -770,7 +594,7 @@
         <v>83.2</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="n">
         <v>2008</v>
       </c>
@@ -789,7 +613,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="n">
         <v>2008</v>
       </c>
@@ -808,7 +632,7 @@
         <v>0.78125</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="n">
         <v>2009</v>
       </c>
@@ -827,7 +651,7 @@
         <v>83.5</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="n">
         <v>2009</v>
       </c>
@@ -846,7 +670,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="n">
         <v>2009</v>
       </c>
@@ -865,7 +689,7 @@
         <v>1.01796407185629</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="n">
         <v>2010</v>
       </c>
@@ -884,7 +708,7 @@
         <v>84.5</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="n">
         <v>2010</v>
       </c>
@@ -903,7 +727,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="7" t="n">
         <v>2010</v>
       </c>
@@ -922,7 +746,7 @@
         <v>0.887573964497041</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="n">
         <v>2011</v>
       </c>
@@ -957,7 +781,7 @@
         <v>82.7</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="n">
         <v>2011</v>
       </c>
@@ -976,7 +800,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="n">
         <v>2011</v>
       </c>
@@ -995,7 +819,7 @@
         <v>0.785973397823458</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="7" t="n">
         <v>2012</v>
       </c>
@@ -1014,7 +838,7 @@
         <v>84.6</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="n">
         <v>2012</v>
       </c>
@@ -1033,7 +857,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="7" t="n">
         <v>2012</v>
       </c>
@@ -1052,7 +876,7 @@
         <v>0.768321513002364</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="7" t="n">
         <v>2013</v>
       </c>
@@ -1072,7 +896,7 @@
       </c>
       <c r="L21" s="12"/>
     </row>
-    <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="7" t="n">
         <v>2013</v>
       </c>
@@ -1091,7 +915,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="7" t="n">
         <v>2013</v>
       </c>
@@ -1110,7 +934,7 @@
         <v>0.875145857642941</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="7" t="n">
         <v>2014</v>
       </c>
@@ -1129,7 +953,7 @@
         <v>84.9</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="7" t="n">
         <v>2014</v>
       </c>
@@ -1148,7 +972,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="7" t="n">
         <v>2014</v>
       </c>
@@ -1167,7 +991,7 @@
         <v>0.88339222614841</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="7" t="n">
         <v>2015</v>
       </c>
@@ -1186,7 +1010,7 @@
         <v>87.1</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="7" t="n">
         <v>2015</v>
       </c>
@@ -1205,7 +1029,7 @@
         <v>1.1</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="7" t="n">
         <v>2015</v>
       </c>
@@ -1224,27 +1048,156 @@
         <v>0.631458094144661</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="7" t="n">
+    <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="13" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="8" t="n">
+        <v>87.4</v>
+      </c>
+      <c r="D30" s="8" t="n">
+        <v>89.8</v>
+      </c>
+      <c r="E30" s="8" t="n">
+        <v>87.7</v>
+      </c>
+      <c r="F30" s="8" t="n">
+        <v>86.5</v>
+      </c>
+      <c r="G30" s="8" t="n">
+        <v>84.6</v>
+      </c>
+      <c r="H30" s="8" t="n">
+        <v>77.9</v>
+      </c>
+      <c r="I30" s="8" t="n">
+        <v>92.5</v>
+      </c>
+      <c r="J30" s="8" t="n">
+        <v>69.5</v>
+      </c>
+      <c r="K30" s="8" t="n">
+        <v>89.2</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="13" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8" t="n">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="13" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="13" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8" t="n">
+        <v>86.4</v>
+      </c>
+      <c r="L33" s="14"/>
+    </row>
+    <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="13" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="13" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="7" t="n">
         <v>2020</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B36" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10" t="n">
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10" t="n">
         <v>90</v>
       </c>
     </row>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1264,74 +1217,74 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6:B8"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="68.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="1" width="9.11"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="15" t="s">
+    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="18" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="15" t="s">
+    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="16" t="n">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="55.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="15" t="s">
+      <c r="B4" s="18" t="n">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="49.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="15" t="s">
+    <row r="6" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="49.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="17" t="s">
+    <row r="7" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="20" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="25.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="19" t="s">
         <v>28</v>
       </c>
     </row>

--- a/dashboard_loader/education_yr12_uploader/education_yr12.xlsx
+++ b/dashboard_loader/education_yr12_uploader/education_yr12.xlsx
@@ -136,7 +136,7 @@
     <t xml:space="preserve">Source</t>
   </si>
   <si>
-    <t xml:space="preserve">ABS Survey of Education and Work, various years and ABS 2006, 2011 and 2016 Census of Population and Housing..</t>
+    <t xml:space="preserve">ABS Survey of Education and Work, various years and ABS 2006, 2011 and 2016 Census of Population and Housing.</t>
   </si>
 </sst>
 </file>
@@ -271,7 +271,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -322,10 +322,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1049,7 +1045,7 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="13" t="n">
+      <c r="A30" s="7" t="n">
         <v>2016</v>
       </c>
       <c r="B30" s="5" t="s">
@@ -1084,7 +1080,7 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="13" t="n">
+      <c r="A31" s="7" t="n">
         <v>2016</v>
       </c>
       <c r="B31" s="5" t="s">
@@ -1103,7 +1099,7 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="13" t="n">
+      <c r="A32" s="7" t="n">
         <v>2016</v>
       </c>
       <c r="B32" s="5" t="s">
@@ -1122,7 +1118,7 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="13" t="n">
+      <c r="A33" s="7" t="n">
         <v>2017</v>
       </c>
       <c r="B33" s="5" t="s">
@@ -1139,10 +1135,10 @@
       <c r="K33" s="8" t="n">
         <v>86.4</v>
       </c>
-      <c r="L33" s="14"/>
+      <c r="L33" s="13"/>
     </row>
     <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="13" t="n">
+      <c r="A34" s="7" t="n">
         <v>2017</v>
       </c>
       <c r="B34" s="5" t="s">
@@ -1161,7 +1157,7 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="13" t="n">
+      <c r="A35" s="7" t="n">
         <v>2017</v>
       </c>
       <c r="B35" s="5" t="s">
@@ -1231,7 +1227,7 @@
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1239,52 +1235,52 @@
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="18" t="n">
+      <c r="B4" s="17" t="n">
         <v>2017</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="18" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="19" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="18" t="s">
         <v>28</v>
       </c>
     </row>

--- a/dashboard_loader/education_yr12_uploader/education_yr12.xlsx
+++ b/dashboard_loader/education_yr12_uploader/education_yr12.xlsx
@@ -71,7 +71,26 @@
     <t xml:space="preserve">Measure</t>
   </si>
   <si>
-    <t xml:space="preserve">Lift the Year 12 or equivalent or Certificate III attainment rate to 90 per cent by 2020</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Lift the Year 12 or equivalent or Certificate III attainment rate to 90 per cent by 2020</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Short title</t>
@@ -149,7 +168,7 @@
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="0.00000000000000_ ;\-0.00000000000000\ "/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -174,6 +193,20 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -271,7 +304,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -300,6 +333,10 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -320,10 +357,22 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -332,19 +381,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -432,8 +481,8 @@
   </sheetPr>
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I9" activeCellId="0" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -501,8 +550,8 @@
       <c r="G2" s="6" t="n">
         <v>76.4</v>
       </c>
-      <c r="H2" s="6" t="n">
-        <v>72.9</v>
+      <c r="H2" s="7" t="n">
+        <v>72.8</v>
       </c>
       <c r="I2" s="6" t="n">
         <v>90.2</v>
@@ -515,7 +564,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="n">
+      <c r="A3" s="8" t="n">
         <v>2007</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -534,7 +583,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="n">
+      <c r="A4" s="8" t="n">
         <v>2007</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -553,7 +602,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="n">
+      <c r="A5" s="8" t="n">
         <v>2007</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -572,7 +621,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="n">
+      <c r="A6" s="8" t="n">
         <v>2008</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -591,7 +640,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="n">
+      <c r="A7" s="8" t="n">
         <v>2008</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -610,7 +659,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="n">
+      <c r="A8" s="8" t="n">
         <v>2008</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -629,7 +678,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="n">
+      <c r="A9" s="8" t="n">
         <v>2009</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -648,7 +697,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="n">
+      <c r="A10" s="8" t="n">
         <v>2009</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -667,7 +716,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="n">
+      <c r="A11" s="8" t="n">
         <v>2009</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -686,511 +735,511 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="n">
+      <c r="A12" s="8" t="n">
         <v>2010</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="9" t="n">
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="10" t="n">
         <v>84.5</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7" t="n">
+      <c r="A13" s="8" t="n">
         <v>2010</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="9" t="n">
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="10" t="n">
         <v>1.5</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7" t="n">
+      <c r="A14" s="8" t="n">
         <v>2010</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="11" t="n">
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="12" t="n">
         <v>0.887573964497041</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="n">
+      <c r="A15" s="8" t="n">
         <v>2011</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="9" t="n">
+      <c r="C15" s="10" t="n">
         <v>84.1</v>
       </c>
-      <c r="D15" s="9" t="n">
+      <c r="D15" s="10" t="n">
         <v>87.4</v>
       </c>
-      <c r="E15" s="9" t="n">
+      <c r="E15" s="10" t="n">
         <v>83.9</v>
       </c>
-      <c r="F15" s="9" t="n">
+      <c r="F15" s="10" t="n">
         <v>82.2</v>
       </c>
-      <c r="G15" s="9" t="n">
+      <c r="G15" s="10" t="n">
         <v>80.6</v>
       </c>
-      <c r="H15" s="9" t="n">
+      <c r="H15" s="10" t="n">
         <v>75.6</v>
       </c>
-      <c r="I15" s="9" t="n">
+      <c r="I15" s="10" t="n">
         <v>90.6</v>
       </c>
-      <c r="J15" s="9" t="n">
-        <v>63.1</v>
-      </c>
-      <c r="K15" s="8" t="n">
+      <c r="J15" s="13" t="n">
+        <v>63</v>
+      </c>
+      <c r="K15" s="9" t="n">
         <v>82.7</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7" t="n">
+      <c r="A16" s="8" t="n">
         <v>2011</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8" t="n">
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9" t="n">
         <v>1.3</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7" t="n">
+      <c r="A17" s="8" t="n">
         <v>2011</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10" t="n">
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11" t="n">
         <v>0.785973397823458</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7" t="n">
+      <c r="A18" s="8" t="n">
         <v>2012</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8" t="n">
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9" t="n">
         <v>84.6</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7" t="n">
+      <c r="A19" s="8" t="n">
         <v>2012</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8" t="n">
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9" t="n">
         <v>1.3</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="7" t="n">
+      <c r="A20" s="8" t="n">
         <v>2012</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10" t="n">
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11" t="n">
         <v>0.768321513002364</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="7" t="n">
+      <c r="A21" s="8" t="n">
         <v>2013</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8" t="n">
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9" t="n">
         <v>85.7</v>
       </c>
-      <c r="L21" s="12"/>
+      <c r="L21" s="14"/>
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7" t="n">
+      <c r="A22" s="8" t="n">
         <v>2013</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8" t="n">
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9" t="n">
         <v>1.5</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="7" t="n">
+      <c r="A23" s="8" t="n">
         <v>2013</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10" t="n">
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11" t="n">
         <v>0.875145857642941</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="7" t="n">
+      <c r="A24" s="8" t="n">
         <v>2014</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8" t="n">
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9" t="n">
         <v>84.9</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="7" t="n">
+      <c r="A25" s="8" t="n">
         <v>2014</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8" t="n">
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9" t="n">
         <v>1.5</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="7" t="n">
+      <c r="A26" s="8" t="n">
         <v>2014</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10" t="n">
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11" t="n">
         <v>0.88339222614841</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="7" t="n">
+      <c r="A27" s="8" t="n">
         <v>2015</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8" t="n">
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9" t="n">
         <v>87.1</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="7" t="n">
+      <c r="A28" s="8" t="n">
         <v>2015</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8" t="n">
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9" t="n">
         <v>1.1</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="7" t="n">
+      <c r="A29" s="8" t="n">
         <v>2015</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10" t="n">
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11" t="n">
         <v>0.631458094144661</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="7" t="n">
+      <c r="A30" s="15" t="n">
         <v>2016</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="8" t="n">
+      <c r="C30" s="9" t="n">
         <v>87.4</v>
       </c>
-      <c r="D30" s="8" t="n">
+      <c r="D30" s="9" t="n">
         <v>89.8</v>
       </c>
-      <c r="E30" s="8" t="n">
+      <c r="E30" s="9" t="n">
         <v>87.7</v>
       </c>
-      <c r="F30" s="8" t="n">
-        <v>86.5</v>
-      </c>
-      <c r="G30" s="8" t="n">
-        <v>84.6</v>
-      </c>
-      <c r="H30" s="8" t="n">
-        <v>77.9</v>
-      </c>
-      <c r="I30" s="8" t="n">
+      <c r="F30" s="16" t="n">
+        <v>86.4</v>
+      </c>
+      <c r="G30" s="16" t="n">
+        <v>84.5</v>
+      </c>
+      <c r="H30" s="16" t="n">
+        <v>77.8</v>
+      </c>
+      <c r="I30" s="9" t="n">
         <v>92.5</v>
       </c>
-      <c r="J30" s="8" t="n">
+      <c r="J30" s="9" t="n">
         <v>69.5</v>
       </c>
-      <c r="K30" s="8" t="n">
+      <c r="K30" s="9" t="n">
         <v>89.2</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="7" t="n">
+      <c r="A31" s="15" t="n">
         <v>2016</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8" t="n">
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9" t="n">
         <v>1.6</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="7" t="n">
+      <c r="A32" s="15" t="n">
         <v>2016</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10" t="n">
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11" t="n">
         <v>0.9</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="7" t="n">
+      <c r="A33" s="15" t="n">
         <v>2017</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8" t="n">
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9" t="n">
         <v>86.4</v>
       </c>
-      <c r="L33" s="13"/>
+      <c r="L33" s="17"/>
     </row>
     <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="7" t="n">
+      <c r="A34" s="15" t="n">
         <v>2017</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8" t="n">
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9" t="n">
         <v>1.2</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="7" t="n">
+      <c r="A35" s="15" t="n">
         <v>2017</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10" t="n">
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11" t="n">
         <v>0.7</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="7" t="n">
+      <c r="A36" s="8" t="n">
         <v>2020</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10" t="n">
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11" t="n">
         <v>90</v>
       </c>
     </row>
@@ -1213,7 +1262,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1227,7 +1276,7 @@
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="18" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1235,52 +1284,52 @@
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="19" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="21" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="17" t="n">
+      <c r="B4" s="21" t="n">
         <v>2017</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="22" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="23" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="57.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="23" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="22" t="s">
         <v>28</v>
       </c>
     </row>
